--- a/Data/EC/NIT-9004822428.xlsx
+++ b/Data/EC/NIT-9004822428.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{12CBFB98-D172-4252-97F4-AD508D6B9C13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5ACC41EE-8F77-44BD-BA64-A0F410DB9515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2B4C7D74-B250-4E6D-AFF1-4BAA29F16209}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C59A396C-A4CD-4A97-8CA7-B5635DAA1038}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="77">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,16 +65,136 @@
     <t>CC</t>
   </si>
   <si>
+    <t>60378034</t>
+  </si>
+  <si>
+    <t>LUISA JULIANA SAMACA NIÑO</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>45538280</t>
+  </si>
+  <si>
+    <t>MIRLEY CANENCIA MARTINEZ</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>1143366163</t>
+  </si>
+  <si>
+    <t>LEYLY MICHEL PUELLO ROMERO</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>45525287</t>
+  </si>
+  <si>
+    <t>YIRA PAOLA BERMUDEZ SAYAVEDRA</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>1047450279</t>
+  </si>
+  <si>
+    <t>DANIEL EDUARDO FLOREZ NAVAS</t>
+  </si>
+  <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>1047399549</t>
+  </si>
+  <si>
+    <t>ANA CAROLINA JIMENEZ VERGARA</t>
+  </si>
+  <si>
+    <t>1047455596</t>
+  </si>
+  <si>
+    <t>KELLY JOHANA RINCON HERNANDEZ</t>
+  </si>
+  <si>
+    <t>45541619</t>
+  </si>
+  <si>
+    <t>ANA MILENA CONTRERAS ROMERO</t>
+  </si>
+  <si>
+    <t>1047501229</t>
+  </si>
+  <si>
+    <t>YUCELIS PAOLA COMAS CABALLERO</t>
+  </si>
+  <si>
     <t>1047427374</t>
   </si>
   <si>
     <t>CARMEN MARIA ISAZA CORREA</t>
   </si>
   <si>
+    <t>2111</t>
+  </si>
+  <si>
     <t>2110</t>
   </si>
   <si>
-    <t>2111</t>
+    <t>1047473026</t>
+  </si>
+  <si>
+    <t>JUAN CAMILO ARIAS BARRAZA</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>1047463220</t>
+  </si>
+  <si>
+    <t>MARIA CRISTINA MARTINEZ AVILA</t>
+  </si>
+  <si>
+    <t>1083569779</t>
+  </si>
+  <si>
+    <t>DALLANA MARCELA CAMACHO MORRIS</t>
   </si>
   <si>
     <t>73199430</t>
@@ -95,37 +215,25 @@
     <t>2208</t>
   </si>
   <si>
-    <t>45525287</t>
-  </si>
-  <si>
-    <t>YIRA PAOLA BERMUDEZ SAYAVEDRA</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>1143366163</t>
-  </si>
-  <si>
-    <t>LEYLY MICHEL PUELLO ROMERO</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>1047501229</t>
-  </si>
-  <si>
-    <t>YUCELIS PAOLA COMAS CABALLERO</t>
-  </si>
-  <si>
-    <t>1047399549</t>
-  </si>
-  <si>
-    <t>ANA CAROLINA JIMENEZ VERGARA</t>
-  </si>
-  <si>
-    <t>2402</t>
+    <t>1143158285</t>
+  </si>
+  <si>
+    <t>ROSA MERCEDES GUETE RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>1022328142</t>
+  </si>
+  <si>
+    <t>ADRIANA VICTORIA COGUA RODRIGUEZ</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -539,7 +647,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8448C382-8F33-0246-6E4F-DE6E8F3E583D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFCA6EBE-D9C6-2813-EF42-D0EF79682031}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -890,8 +998,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CD73182-1AA7-4310-BB28-7FBF3E35D663}">
-  <dimension ref="B2:J32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{619D8DD8-BC2B-4EE4-9D50-95044D7B3934}">
+  <dimension ref="B2:J58"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -902,7 +1010,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -915,7 +1023,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -960,7 +1068,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -992,12 +1100,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>629058</v>
+        <v>4032981</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1008,17 +1116,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="C13" s="5">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="F13" s="5">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1045,13 +1153,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1068,10 +1176,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>19509</v>
+        <v>87192</v>
       </c>
       <c r="G16" s="18">
-        <v>1219320</v>
+        <v>2214895</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1091,10 +1199,10 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>48773</v>
+        <v>87192</v>
       </c>
       <c r="G17" s="18">
-        <v>1219320</v>
+        <v>2214895</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1105,19 +1213,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>15</v>
-      </c>
       <c r="F18" s="18">
-        <v>60100</v>
+        <v>87192</v>
       </c>
       <c r="G18" s="18">
-        <v>18210139</v>
+        <v>2214895</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1128,19 +1236,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>51514</v>
+        <v>87192</v>
       </c>
       <c r="G19" s="18">
-        <v>1287846</v>
+        <v>2214895</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1151,19 +1259,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F20" s="18">
-        <v>1942</v>
+        <v>2043</v>
       </c>
       <c r="G20" s="18">
-        <v>1456811</v>
+        <v>1532565</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1174,13 +1282,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F21" s="18">
         <v>58272</v>
@@ -1197,19 +1305,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F22" s="18">
-        <v>46132</v>
+        <v>58272</v>
       </c>
       <c r="G22" s="18">
-        <v>1821014</v>
+        <v>1456811</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1220,19 +1328,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E23" s="16" t="s">
         <v>24</v>
       </c>
       <c r="F23" s="18">
-        <v>105852</v>
+        <v>1942</v>
       </c>
       <c r="G23" s="18">
-        <v>2646298</v>
+        <v>1456811</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1249,13 +1357,13 @@
         <v>26</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F24" s="18">
-        <v>72840</v>
+        <v>119772</v>
       </c>
       <c r="G24" s="18">
-        <v>1821014</v>
+        <v>2994305</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1266,75 +1374,673 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D25" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="16" t="s">
-        <v>29</v>
-      </c>
       <c r="F25" s="18">
-        <v>105852</v>
+        <v>119772</v>
       </c>
       <c r="G25" s="18">
-        <v>2646298</v>
+        <v>2994305</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B26" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E26" s="22" t="s">
+      <c r="B26" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="F26" s="24">
-        <v>58272</v>
-      </c>
-      <c r="G26" s="24">
-        <v>1456811</v>
-      </c>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="26"/>
+      <c r="D26" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="18">
+        <v>105852</v>
+      </c>
+      <c r="G26" s="18">
+        <v>2646298</v>
+      </c>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="20"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B27" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="18">
+        <v>105852</v>
+      </c>
+      <c r="G27" s="18">
+        <v>2646298</v>
+      </c>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="20"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B28" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" s="18">
+        <v>119772</v>
+      </c>
+      <c r="G28" s="18">
+        <v>2994305</v>
+      </c>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="20"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B29" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" s="18">
+        <v>164588</v>
+      </c>
+      <c r="G29" s="18">
+        <v>4114701</v>
+      </c>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="20"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B30" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" s="18">
+        <v>72840</v>
+      </c>
+      <c r="G30" s="18">
+        <v>1821014</v>
+      </c>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="20"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B31" s="32" t="s">
+      <c r="B31" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" s="18">
+        <v>46132</v>
+      </c>
+      <c r="G31" s="18">
+        <v>1821014</v>
+      </c>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="20"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B32" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="32"/>
-      <c r="H31" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B32" s="32" t="s">
+      <c r="F32" s="18">
+        <v>48773</v>
+      </c>
+      <c r="G32" s="18">
+        <v>1219320</v>
+      </c>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="20"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B33" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="32"/>
-      <c r="H32" s="1" t="s">
+      <c r="E33" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
+      <c r="F33" s="18">
+        <v>19509</v>
+      </c>
+      <c r="G33" s="18">
+        <v>1219320</v>
+      </c>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="20"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B34" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" s="18">
+        <v>79736</v>
+      </c>
+      <c r="G34" s="18">
+        <v>2339372</v>
+      </c>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="20"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B35" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" s="18">
+        <v>93575</v>
+      </c>
+      <c r="G35" s="18">
+        <v>2339372</v>
+      </c>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="20"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B36" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F36" s="18">
+        <v>93575</v>
+      </c>
+      <c r="G36" s="18">
+        <v>2339372</v>
+      </c>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="20"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B37" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F37" s="18">
+        <v>93575</v>
+      </c>
+      <c r="G37" s="18">
+        <v>2339372</v>
+      </c>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="20"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B38" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F38" s="18">
+        <v>93575</v>
+      </c>
+      <c r="G38" s="18">
+        <v>2339372</v>
+      </c>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="20"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B39" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F39" s="18">
+        <v>93575</v>
+      </c>
+      <c r="G39" s="18">
+        <v>2339372</v>
+      </c>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="20"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B40" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F40" s="18">
+        <v>93575</v>
+      </c>
+      <c r="G40" s="18">
+        <v>2339372</v>
+      </c>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="20"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B41" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F41" s="18">
+        <v>518154</v>
+      </c>
+      <c r="G41" s="18">
+        <v>3944400</v>
+      </c>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="20"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B42" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F42" s="18">
+        <v>518154</v>
+      </c>
+      <c r="G42" s="18">
+        <v>3944400</v>
+      </c>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="20"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B43" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F43" s="18">
+        <v>2043</v>
+      </c>
+      <c r="G43" s="18">
+        <v>1532565</v>
+      </c>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="20"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B44" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F44" s="18">
+        <v>60100</v>
+      </c>
+      <c r="G44" s="18">
+        <v>18210139</v>
+      </c>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="20"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B45" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E45" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F45" s="18">
+        <v>51514</v>
+      </c>
+      <c r="G45" s="18">
+        <v>1287846</v>
+      </c>
+      <c r="H45" s="19"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="20"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B46" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E46" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F46" s="18">
+        <v>105852</v>
+      </c>
+      <c r="G46" s="18">
+        <v>2646298</v>
+      </c>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="20"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B47" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E47" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F47" s="18">
+        <v>105852</v>
+      </c>
+      <c r="G47" s="18">
+        <v>2646298</v>
+      </c>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="20"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B48" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E48" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F48" s="18">
+        <v>105852</v>
+      </c>
+      <c r="G48" s="18">
+        <v>2646298</v>
+      </c>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="20"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B49" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="F49" s="18">
+        <v>105852</v>
+      </c>
+      <c r="G49" s="18">
+        <v>2646298</v>
+      </c>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="20"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B50" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F50" s="18">
+        <v>105852</v>
+      </c>
+      <c r="G50" s="18">
+        <v>2646298</v>
+      </c>
+      <c r="H50" s="19"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="20"/>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B51" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E51" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F51" s="18">
+        <v>105852</v>
+      </c>
+      <c r="G51" s="18">
+        <v>2646298</v>
+      </c>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="20"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B52" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D52" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E52" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F52" s="24">
+        <v>214559</v>
+      </c>
+      <c r="G52" s="24">
+        <v>6704973</v>
+      </c>
+      <c r="H52" s="25"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="26"/>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B57" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="C57" s="32"/>
+      <c r="H57" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B58" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C58" s="32"/>
+      <c r="H58" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="H57:J57"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9004822428.xlsx
+++ b/Data/EC/NIT-9004822428.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5ACC41EE-8F77-44BD-BA64-A0F410DB9515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{57C2B235-5534-4A63-B06F-4CDF8C62675F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C59A396C-A4CD-4A97-8CA7-B5635DAA1038}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DB063806-0FA6-43B6-8C5C-1D4589247867}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="44">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,31 +65,43 @@
     <t>CC</t>
   </si>
   <si>
-    <t>60378034</t>
-  </si>
-  <si>
-    <t>LUISA JULIANA SAMACA NIÑO</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>45538280</t>
-  </si>
-  <si>
-    <t>MIRLEY CANENCIA MARTINEZ</t>
-  </si>
-  <si>
-    <t>2505</t>
+    <t>1047427374</t>
+  </si>
+  <si>
+    <t>CARMEN MARIA ISAZA CORREA</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>73199430</t>
+  </si>
+  <si>
+    <t>JOSE CARLOS PORMARES ESTRADA</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>20378675</t>
+  </si>
+  <si>
+    <t>NOHEMI PATERNINA ACUÃ?A</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>45525287</t>
+  </si>
+  <si>
+    <t>YIRA PAOLA BERMUDEZ SAYAVEDRA</t>
+  </si>
+  <si>
+    <t>2306</t>
   </si>
   <si>
     <t>1143366163</t>
@@ -98,142 +110,31 @@
     <t>LEYLY MICHEL PUELLO ROMERO</t>
   </si>
   <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>1047399549</t>
+  </si>
+  <si>
+    <t>ANA CAROLINA JIMENEZ VERGARA</t>
+  </si>
+  <si>
+    <t>1047501229</t>
+  </si>
+  <si>
+    <t>YUCELIS PAOLA COMAS CABALLERO</t>
+  </si>
+  <si>
     <t>2402</t>
   </si>
   <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>45525287</t>
-  </si>
-  <si>
-    <t>YIRA PAOLA BERMUDEZ SAYAVEDRA</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>1047450279</t>
-  </si>
-  <si>
-    <t>DANIEL EDUARDO FLOREZ NAVAS</t>
-  </si>
-  <si>
-    <t>2507</t>
-  </si>
-  <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>1047399549</t>
-  </si>
-  <si>
-    <t>ANA CAROLINA JIMENEZ VERGARA</t>
-  </si>
-  <si>
-    <t>1047455596</t>
-  </si>
-  <si>
-    <t>KELLY JOHANA RINCON HERNANDEZ</t>
-  </si>
-  <si>
-    <t>45541619</t>
-  </si>
-  <si>
-    <t>ANA MILENA CONTRERAS ROMERO</t>
-  </si>
-  <si>
-    <t>1047501229</t>
-  </si>
-  <si>
-    <t>YUCELIS PAOLA COMAS CABALLERO</t>
-  </si>
-  <si>
-    <t>1047427374</t>
-  </si>
-  <si>
-    <t>CARMEN MARIA ISAZA CORREA</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>1047473026</t>
-  </si>
-  <si>
-    <t>JUAN CAMILO ARIAS BARRAZA</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>1047463220</t>
-  </si>
-  <si>
-    <t>MARIA CRISTINA MARTINEZ AVILA</t>
-  </si>
-  <si>
-    <t>1083569779</t>
-  </si>
-  <si>
-    <t>DALLANA MARCELA CAMACHO MORRIS</t>
-  </si>
-  <si>
-    <t>73199430</t>
-  </si>
-  <si>
-    <t>JOSE CARLOS PORMARES ESTRADA</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>20378675</t>
-  </si>
-  <si>
-    <t>NOHEMI PATERNINA ACUÃ?A</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>1143158285</t>
-  </si>
-  <si>
-    <t>ROSA MERCEDES GUETE RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>1022328142</t>
-  </si>
-  <si>
-    <t>ADRIANA VICTORIA COGUA RODRIGUEZ</t>
+    <t>1235040427</t>
+  </si>
+  <si>
+    <t>DAMARIS MARIA CASTILLO HERRERA</t>
+  </si>
+  <si>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -332,7 +233,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -345,9 +248,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -547,23 +448,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -591,10 +492,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -647,7 +548,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFCA6EBE-D9C6-2813-EF42-D0EF79682031}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10DC3C7F-0F05-4896-CB08-C9FF9B881361}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -998,8 +899,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{619D8DD8-BC2B-4EE4-9D50-95044D7B3934}">
-  <dimension ref="B2:J58"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1BC76A3-864F-4022-A5B6-4B1C5CBFB993}">
+  <dimension ref="B2:J33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1010,7 +911,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -1023,7 +924,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1068,7 +969,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1100,12 +1001,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>4032981</v>
+        <v>635648</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1116,17 +1017,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="C13" s="5">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="F13" s="5">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1153,13 +1054,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1176,10 +1077,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>87192</v>
+        <v>19509</v>
       </c>
       <c r="G16" s="18">
-        <v>2214895</v>
+        <v>1219320</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1199,10 +1100,10 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>87192</v>
+        <v>48773</v>
       </c>
       <c r="G17" s="18">
-        <v>2214895</v>
+        <v>1219320</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1213,19 +1114,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F18" s="18">
-        <v>87192</v>
+        <v>60100</v>
       </c>
       <c r="G18" s="18">
-        <v>2214895</v>
+        <v>18210139</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1236,19 +1137,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F19" s="18">
-        <v>87192</v>
+        <v>51514</v>
       </c>
       <c r="G19" s="18">
-        <v>2214895</v>
+        <v>1287846</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1259,19 +1160,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F20" s="18">
-        <v>2043</v>
+        <v>1942</v>
       </c>
       <c r="G20" s="18">
-        <v>1532565</v>
+        <v>1456811</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1282,13 +1183,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F21" s="18">
         <v>58272</v>
@@ -1305,19 +1206,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F22" s="18">
-        <v>58272</v>
+        <v>105852</v>
       </c>
       <c r="G22" s="18">
-        <v>1456811</v>
+        <v>2646298</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1328,19 +1229,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E23" s="16" t="s">
         <v>24</v>
       </c>
       <c r="F23" s="18">
-        <v>1942</v>
+        <v>46132</v>
       </c>
       <c r="G23" s="18">
-        <v>1456811</v>
+        <v>1821014</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1351,19 +1252,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F24" s="18">
-        <v>119772</v>
+        <v>58272</v>
       </c>
       <c r="G24" s="18">
-        <v>2994305</v>
+        <v>1456811</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1380,13 +1281,13 @@
         <v>26</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F25" s="18">
-        <v>119772</v>
+        <v>105852</v>
       </c>
       <c r="G25" s="18">
-        <v>2994305</v>
+        <v>2646298</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1397,650 +1298,75 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>20</v>
-      </c>
       <c r="F26" s="18">
-        <v>105852</v>
+        <v>72840</v>
       </c>
       <c r="G26" s="18">
-        <v>2646298</v>
+        <v>1821014</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" s="17" t="s">
+      <c r="C27" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F27" s="18">
-        <v>105852</v>
-      </c>
-      <c r="G27" s="18">
-        <v>2646298</v>
-      </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B28" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="16" t="s">
+      <c r="D27" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="17" t="s">
+      <c r="E27" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="E28" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F28" s="18">
-        <v>119772</v>
-      </c>
-      <c r="G28" s="18">
-        <v>2994305</v>
-      </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B29" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F29" s="18">
-        <v>164588</v>
-      </c>
-      <c r="G29" s="18">
-        <v>4114701</v>
-      </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B30" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F30" s="18">
-        <v>72840</v>
-      </c>
-      <c r="G30" s="18">
-        <v>1821014</v>
-      </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B31" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F31" s="18">
-        <v>46132</v>
-      </c>
-      <c r="G31" s="18">
-        <v>1821014</v>
-      </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
+      <c r="F27" s="24">
+        <v>6590</v>
+      </c>
+      <c r="G27" s="24">
+        <v>1647507</v>
+      </c>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="26"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B32" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F32" s="18">
-        <v>48773</v>
-      </c>
-      <c r="G32" s="18">
-        <v>1219320</v>
-      </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="20"/>
+      <c r="B32" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="32"/>
+      <c r="H32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B33" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F33" s="18">
-        <v>19509</v>
-      </c>
-      <c r="G33" s="18">
-        <v>1219320</v>
-      </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="20"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B34" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="16" t="s">
+      <c r="B33" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="E34" s="16" t="s">
+      <c r="C33" s="32"/>
+      <c r="H33" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F34" s="18">
-        <v>79736</v>
-      </c>
-      <c r="G34" s="18">
-        <v>2339372</v>
-      </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="20"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B35" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="F35" s="18">
-        <v>93575</v>
-      </c>
-      <c r="G35" s="18">
-        <v>2339372</v>
-      </c>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="20"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B36" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D36" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="E36" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F36" s="18">
-        <v>93575</v>
-      </c>
-      <c r="G36" s="18">
-        <v>2339372</v>
-      </c>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="20"/>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B37" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D37" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="F37" s="18">
-        <v>93575</v>
-      </c>
-      <c r="G37" s="18">
-        <v>2339372</v>
-      </c>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="20"/>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B38" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D38" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="E38" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="F38" s="18">
-        <v>93575</v>
-      </c>
-      <c r="G38" s="18">
-        <v>2339372</v>
-      </c>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="20"/>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B39" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D39" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="E39" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="F39" s="18">
-        <v>93575</v>
-      </c>
-      <c r="G39" s="18">
-        <v>2339372</v>
-      </c>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="20"/>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B40" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D40" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="E40" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="F40" s="18">
-        <v>93575</v>
-      </c>
-      <c r="G40" s="18">
-        <v>2339372</v>
-      </c>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="20"/>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B41" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D41" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E41" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F41" s="18">
-        <v>518154</v>
-      </c>
-      <c r="G41" s="18">
-        <v>3944400</v>
-      </c>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="20"/>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B42" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D42" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E42" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F42" s="18">
-        <v>518154</v>
-      </c>
-      <c r="G42" s="18">
-        <v>3944400</v>
-      </c>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="20"/>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B43" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D43" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E43" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F43" s="18">
-        <v>2043</v>
-      </c>
-      <c r="G43" s="18">
-        <v>1532565</v>
-      </c>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="20"/>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B44" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D44" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="E44" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="F44" s="18">
-        <v>60100</v>
-      </c>
-      <c r="G44" s="18">
-        <v>18210139</v>
-      </c>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="20"/>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B45" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C45" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D45" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E45" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="F45" s="18">
-        <v>51514</v>
-      </c>
-      <c r="G45" s="18">
-        <v>1287846</v>
-      </c>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="20"/>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B46" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C46" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D46" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E46" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F46" s="18">
-        <v>105852</v>
-      </c>
-      <c r="G46" s="18">
-        <v>2646298</v>
-      </c>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="20"/>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B47" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C47" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D47" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E47" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F47" s="18">
-        <v>105852</v>
-      </c>
-      <c r="G47" s="18">
-        <v>2646298</v>
-      </c>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="20"/>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B48" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C48" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D48" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E48" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F48" s="18">
-        <v>105852</v>
-      </c>
-      <c r="G48" s="18">
-        <v>2646298</v>
-      </c>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="20"/>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B49" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C49" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D49" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E49" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="F49" s="18">
-        <v>105852</v>
-      </c>
-      <c r="G49" s="18">
-        <v>2646298</v>
-      </c>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="20"/>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B50" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C50" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D50" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E50" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="F50" s="18">
-        <v>105852</v>
-      </c>
-      <c r="G50" s="18">
-        <v>2646298</v>
-      </c>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="20"/>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B51" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C51" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D51" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E51" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="F51" s="18">
-        <v>105852</v>
-      </c>
-      <c r="G51" s="18">
-        <v>2646298</v>
-      </c>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="20"/>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B52" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C52" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="D52" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="E52" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="F52" s="24">
-        <v>214559</v>
-      </c>
-      <c r="G52" s="24">
-        <v>6704973</v>
-      </c>
-      <c r="H52" s="25"/>
-      <c r="I52" s="25"/>
-      <c r="J52" s="26"/>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B57" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="C57" s="32"/>
-      <c r="H57" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B58" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="C58" s="32"/>
-      <c r="H58" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="H58:J58"/>
-    <mergeCell ref="H57:J57"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="H32:J32"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
